--- a/plots/tables.xlsx
+++ b/plots/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\yolov12_SmallData\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\yolov12_SmallData\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95B994-D628-49BC-819F-9097EFEE9B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABECC721-A9FF-494C-9171-B5507F4BF84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,25 +42,10 @@
     <t>epoch</t>
   </si>
   <si>
-    <t>n-theirs</t>
-  </si>
-  <si>
     <t>n-ours</t>
   </si>
   <si>
     <t>s-ours</t>
-  </si>
-  <si>
-    <t>s-theirs</t>
-  </si>
-  <si>
-    <t>m-theirs</t>
-  </si>
-  <si>
-    <t>l-theirs</t>
-  </si>
-  <si>
-    <t>x-theirs</t>
   </si>
   <si>
     <t>m-ours</t>
@@ -100,6 +85,21 @@
   </si>
   <si>
     <t>Relative difference (%)</t>
+  </si>
+  <si>
+    <t>n-yolov12 devs</t>
+  </si>
+  <si>
+    <t>s-yolov12 devs</t>
+  </si>
+  <si>
+    <t>m-yolov12 devs</t>
+  </si>
+  <si>
+    <t>l-yolov12 devs</t>
+  </si>
+  <si>
+    <t>x-yolov12 devs</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n-theirs</c:v>
+                  <c:v>n-yolov12 devs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3949,7 +3949,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>n-theirs</c:v>
+                        <c:v>n-yolov12 devs</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7926,7 +7926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s-theirs</c:v>
+                  <c:v>s-yolov12 devs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11374,7 +11374,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>n-theirs</c:v>
+                        <c:v>n-yolov12 devs</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -15359,7 +15359,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>m-theirs</c:v>
+                  <c:v>m-yolov12 devs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18828,7 +18828,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>l-theirs</c:v>
+                  <c:v>l-yolov12 devs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22429,7 +22429,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x-theirs</c:v>
+                  <c:v>x-yolov12 devs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28709,8 +28709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28720,34 +28720,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -47798,7 +47798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DBEB78-11EB-4D32-B16F-E357AC8888DF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -47812,24 +47812,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <f>MAX(Sheet1!C$2:C$601)</f>
@@ -47850,7 +47850,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>MAX(Sheet1!E$2:E$601)</f>
@@ -47871,7 +47871,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>MAX(Sheet1!G$2:G$601)</f>
@@ -47892,7 +47892,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <f>MAX(Sheet1!I$2:I$601)</f>
@@ -47913,7 +47913,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <f>MAX(Sheet1!K$2:K$601)</f>
